--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_196.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_196.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,76 +488,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1066176470588235</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'F#']]</t>
-        </is>
+          <t>isophonics_175</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_1</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1196581196581196</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['F', 'C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
+          <t>[['Ab/5', 'Eb', 'Ab/5', 'Eb', 'Bb/3']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(5.91585, 14.867142)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:41.849092', '0:01:49.476848')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:18.978000', '0:00:26.660000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'B']]</t>
-        </is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2385964912280702</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(19.602494, 26.162131)]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(123.22, 126.88)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
+          <t>[('0:00:13.336043', '0:00:30.271443')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:02:08.160000', '0:02:09.880000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -561,40 +576,40 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1202898550724638</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min'], ['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
+          <t>[('0:00:03.320000', '0:00:08.680000'), ('0:00:22.180000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:20.920000', '0:00:26.040000'), ('0:03:45.320000', '0:03:50.460000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -602,527 +617,539 @@
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.15375</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:min', 'A', 'D'], ['B:min', 'E:min', 'A']]</t>
-        </is>
+          <t>jaah_73</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02647828362114077</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E'], ['C#:min', 'F#:min', 'B']]</t>
+          <t>[['Bb', 'F:7', 'Bb'], ['C:min7', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(25.00678, 29.410731), (23.6473, 27.266198)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['A:min7/C', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.93948, 19.795536), (38.139299, 41.982202)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:19.130000', '0:00:20.830000'), ('0:00:09.660000', '0:00:10.950000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:16.560000', '0:01:27.040000'), ('0:01:13.300000', '0:01:20.180000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:min', 'A#:7', 'D#:min'], ['D#:maj', 'A#:7', 'D#:maj'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1666666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min'], ['A#/F', 'F:7', 'A#'], ['A#:min/F', 'F', 'A#:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D'], ['A#:maj', 'G:min/D', 'D:7', 'G:min'], ['G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98), (9.1, 13.86), (43.54, 60.0), (0.78, 5.98)]</t>
+          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min'], ['C:min', 'C:min/G', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(25.42, 31.24), (24.68, 28.56), (271.22, 275.78), (13.36, 18.32)]</t>
+          <t>[('0:00:41.920000', '0:00:51.280000'), ('0:00:38.940000', '0:00:49'), ('0:00:45.940000', '0:00:59.040000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:23.300000', '0:00:29.360000'), ('0:01:06.040000', '0:01:11.560000'), ('0:00:22.080000', '0:00:26.860000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_64</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2129237288135593</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(51.96, 58.62)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(25.11, 28.41)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3405405405405405</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G'], ['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(142.379117, 147.510727), (144.085784, 149.240614)]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(142.38, 145.8), (138.8, 144.46)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_151</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2509803921568627</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F', 'F']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(82.290863, 91.834264)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(23.586235, 29.611814)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:01:52.140000', '0:01:54.760000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:25.180000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(17.84, 26.98), (66.04, 68.54), (68.04, 74.94), (68.54, 79.0)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(55.4, 63.68), (60.04, 65.24), (72.52, 83.28), (6.12, 11.62)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:06.740000', '0:01:13.840000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08741554054054054</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.425</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(14.711383, 18.983854)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.605464, 10.96619)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(88.18, 109.56)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(86.98, 111.2)]</t>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6153846153846154</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(124.3, 129.24)]</t>
+          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(8.34, 26.4)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.02, 24.78)]</t>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1726973684210526</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5892857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
+          <t>[['C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.727609, 8.204625)]</t>
+          <t>[('0:00:03.117845', '0:00:14.158934')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:00:41.895260', '0:00:54.712675')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2392241379310345</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(87.66, 96.72)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(4.84, 10.64)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_194</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(144.085784, 149.240614)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(16.04, 22.4)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
